--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2858369.006274445</v>
+        <v>2854110.740621209</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>287.283022185841</v>
       </c>
       <c r="E2" t="n">
-        <v>298.9690998885578</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>412.9385639094162</v>
       </c>
       <c r="H2" t="n">
-        <v>315.2627091761996</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359321</v>
+        <v>119.3310866359322</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.360597680916499</v>
+        <v>1.360597680916698</v>
       </c>
       <c r="S2" t="n">
-        <v>155.1464635459283</v>
+        <v>155.1464635459284</v>
       </c>
       <c r="T2" t="n">
         <v>212.7466796050973</v>
@@ -718,7 +718,7 @@
         <v>251.156519019379</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.0785727665282</v>
       </c>
       <c r="H3" t="n">
-        <v>98.51394015369121</v>
+        <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370737</v>
+        <v>45.84481919370742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353351</v>
+        <v>21.62032152353362</v>
       </c>
       <c r="S3" t="n">
-        <v>148.187383735635</v>
+        <v>146.6825794839475</v>
       </c>
       <c r="T3" t="n">
         <v>195.0661150959129</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>97.41005520222542</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9304924685165</v>
+        <v>162.189634191424</v>
       </c>
       <c r="H4" t="n">
         <v>152.7984799768616</v>
       </c>
       <c r="I4" t="n">
-        <v>123.5587419097207</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>91.37834943811077</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>18.64129030440236</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>4.800311936799574</v>
+        <v>202.3860496764734</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>204.5742149736733</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>114.2568435160699</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>137.7488816755003</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>52.71114119546524</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444131</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>108.9065924712584</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>9.592641220497489</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2137,10 +2137,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>104.4262124629297</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576184</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>41.02686156550261</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>144.4286493356922</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3082,7 +3082,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3195,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>19.865078448883</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,16 +3243,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>141.3831318263027</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>123.9815576456784</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>113.7076464771381</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V43" t="n">
-        <v>243.1373908222623</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560547</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>155.1980648094033</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>151.8518831495033</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1621.769106763671</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="C2" t="n">
-        <v>1621.769106763671</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="D2" t="n">
-        <v>1621.769106763671</v>
+        <v>1387.121188589433</v>
       </c>
       <c r="E2" t="n">
-        <v>1319.780116977249</v>
+        <v>1001.332935991189</v>
       </c>
       <c r="F2" t="n">
-        <v>908.7942121876411</v>
+        <v>590.3470312015811</v>
       </c>
       <c r="G2" t="n">
-        <v>491.6845516730792</v>
+        <v>173.2373706870192</v>
       </c>
       <c r="H2" t="n">
-        <v>173.237370687019</v>
+        <v>173.2373706870192</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>72.11519083088518</v>
+        <v>72.1151908308849</v>
       </c>
       <c r="K2" t="n">
-        <v>151.950669111822</v>
+        <v>151.9506691118213</v>
       </c>
       <c r="L2" t="n">
-        <v>701.3800037181045</v>
+        <v>699.74449813262</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.332547639727</v>
+        <v>1327.697042054242</v>
       </c>
       <c r="N2" t="n">
-        <v>1952.814022680361</v>
+        <v>1951.178517094875</v>
       </c>
       <c r="O2" t="n">
-        <v>2494.726756291969</v>
+        <v>2494.72675629197</v>
       </c>
       <c r="P2" t="n">
         <v>2602.377499016428</v>
@@ -4366,16 +4366,16 @@
         <v>2008.368946827792</v>
       </c>
       <c r="V2" t="n">
-        <v>2008.368946827792</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="W2" t="n">
-        <v>2008.368946827792</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="X2" t="n">
-        <v>2008.368946827792</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="Y2" t="n">
-        <v>2008.368946827792</v>
+        <v>1677.306059484222</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>965.1304038988715</v>
+        <v>966.6504081935058</v>
       </c>
       <c r="C3" t="n">
-        <v>790.6773746177445</v>
+        <v>792.1973789123788</v>
       </c>
       <c r="D3" t="n">
-        <v>641.7429649564932</v>
+        <v>643.2629692511275</v>
       </c>
       <c r="E3" t="n">
-        <v>482.5055099510377</v>
+        <v>484.025514245672</v>
       </c>
       <c r="F3" t="n">
-        <v>335.9709519779227</v>
+        <v>337.4909562725569</v>
       </c>
       <c r="G3" t="n">
-        <v>198.5178481733488</v>
+        <v>200.037852467983</v>
       </c>
       <c r="H3" t="n">
-        <v>99.00881771507484</v>
+        <v>99.0088177150749</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
@@ -4412,16 +4412,16 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>380.2766518524141</v>
+        <v>380.2766518524139</v>
       </c>
       <c r="L3" t="n">
-        <v>882.1470455900082</v>
+        <v>882.1470455900076</v>
       </c>
       <c r="M3" t="n">
-        <v>1519.785345024897</v>
+        <v>1519.785345024896</v>
       </c>
       <c r="N3" t="n">
-        <v>1715.45809568119</v>
+        <v>1715.458095681189</v>
       </c>
       <c r="O3" t="n">
         <v>2191.996692751183</v>
@@ -4436,25 +4436,25 @@
         <v>2613.207268371013</v>
       </c>
       <c r="S3" t="n">
-        <v>2463.523042375421</v>
+        <v>2465.043046670055</v>
       </c>
       <c r="T3" t="n">
-        <v>2266.48656248056</v>
+        <v>2268.006566775194</v>
       </c>
       <c r="U3" t="n">
-        <v>2038.34700484937</v>
+        <v>2039.867009144005</v>
       </c>
       <c r="V3" t="n">
-        <v>1803.194896617628</v>
+        <v>1804.714900912262</v>
       </c>
       <c r="W3" t="n">
-        <v>1548.957539889426</v>
+        <v>1550.47754418406</v>
       </c>
       <c r="X3" t="n">
-        <v>1341.106039683893</v>
+        <v>1342.626043978528</v>
       </c>
       <c r="Y3" t="n">
-        <v>1133.34574091894</v>
+        <v>1134.865745213574</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1043.779963221469</v>
+        <v>815.7904123234498</v>
       </c>
       <c r="C4" t="n">
-        <v>945.3859680677054</v>
+        <v>815.7904123234498</v>
       </c>
       <c r="D4" t="n">
-        <v>795.2693286553697</v>
+        <v>665.673772911114</v>
       </c>
       <c r="E4" t="n">
-        <v>647.3562350729766</v>
+        <v>517.7606793287209</v>
       </c>
       <c r="F4" t="n">
-        <v>500.4662875750662</v>
+        <v>370.8707318308105</v>
       </c>
       <c r="G4" t="n">
-        <v>331.8496285159586</v>
+        <v>207.0428185061398</v>
       </c>
       <c r="H4" t="n">
-        <v>177.5077295494317</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I4" t="n">
         <v>52.70091953961285</v>
@@ -4491,49 +4491,49 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>152.6313247131525</v>
+        <v>152.6313247131523</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039133</v>
+        <v>336.0342731039129</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856116</v>
+        <v>539.7960902856111</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066371</v>
+        <v>744.1475233066363</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249428</v>
+        <v>916.8828514249418</v>
       </c>
       <c r="P4" t="n">
-        <v>1041.167083351319</v>
+        <v>1041.167083351318</v>
       </c>
       <c r="Q4" t="n">
-        <v>1043.779963221469</v>
+        <v>1043.779963221467</v>
       </c>
       <c r="R4" t="n">
-        <v>1043.779963221469</v>
+        <v>1043.779963221467</v>
       </c>
       <c r="S4" t="n">
-        <v>1043.779963221469</v>
+        <v>1043.779963221467</v>
       </c>
       <c r="T4" t="n">
-        <v>1043.779963221469</v>
+        <v>1043.779963221467</v>
       </c>
       <c r="U4" t="n">
-        <v>1043.779963221469</v>
+        <v>1043.779963221467</v>
       </c>
       <c r="V4" t="n">
-        <v>1043.779963221469</v>
+        <v>1043.779963221467</v>
       </c>
       <c r="W4" t="n">
-        <v>1043.779963221469</v>
+        <v>1043.779963221467</v>
       </c>
       <c r="X4" t="n">
-        <v>1043.779963221469</v>
+        <v>815.7904123234498</v>
       </c>
       <c r="Y4" t="n">
-        <v>1043.779963221469</v>
+        <v>815.7904123234498</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1779.954571929383</v>
+        <v>1715.225849240579</v>
       </c>
       <c r="C5" t="n">
-        <v>1410.992054988971</v>
+        <v>1346.263332300167</v>
       </c>
       <c r="D5" t="n">
-        <v>1410.992054988971</v>
+        <v>987.9976336934169</v>
       </c>
       <c r="E5" t="n">
-        <v>1318.690691920173</v>
+        <v>602.2093810951726</v>
       </c>
       <c r="F5" t="n">
-        <v>907.7047871305651</v>
+        <v>191.223476305565</v>
       </c>
       <c r="G5" t="n">
-        <v>490.6170053669925</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H5" t="n">
         <v>172.393890139502</v>
@@ -4570,16 +4570,16 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>477.4022825530416</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L5" t="n">
-        <v>683.1408478992852</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M5" t="n">
-        <v>1314.858658882597</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N5" t="n">
-        <v>1942.166326942443</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O5" t="n">
         <v>2489.327531709521</v>
@@ -4594,25 +4594,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2420.246115248354</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U5" t="n">
-        <v>2166.554411993505</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V5" t="n">
-        <v>2166.554411993505</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W5" t="n">
-        <v>2166.554411993505</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="X5" t="n">
-        <v>2166.554411993505</v>
+        <v>2105.365181216391</v>
       </c>
       <c r="Y5" t="n">
-        <v>2166.554411993505</v>
+        <v>1715.225849240579</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K6" t="n">
-        <v>120.3087392029699</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L6" t="n">
-        <v>624.6702790690885</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M6" t="n">
-        <v>986.7313792423969</v>
+        <v>1645.695465035541</v>
       </c>
       <c r="N6" t="n">
-        <v>1638.905258545106</v>
+        <v>2136.130580724115</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.341267297829</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P6" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>195.0871819246492</v>
+        <v>666.5567829601589</v>
       </c>
       <c r="C7" t="n">
-        <v>195.0871819246492</v>
+        <v>497.620600032252</v>
       </c>
       <c r="D7" t="n">
-        <v>195.0871819246492</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E7" t="n">
-        <v>195.0871819246492</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F7" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G7" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H7" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J7" t="n">
         <v>52.70091953961285</v>
@@ -4749,28 +4749,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S7" t="n">
-        <v>714.7173549707657</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T7" t="n">
-        <v>489.0881582831306</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U7" t="n">
-        <v>199.9359818608104</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V7" t="n">
-        <v>195.0871819246492</v>
+        <v>848.2052477903986</v>
       </c>
       <c r="W7" t="n">
-        <v>195.0871819246492</v>
+        <v>848.2052477903986</v>
       </c>
       <c r="X7" t="n">
-        <v>195.0871819246492</v>
+        <v>848.2052477903986</v>
       </c>
       <c r="Y7" t="n">
-        <v>195.0871819246492</v>
+        <v>848.2052477903986</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1369.430093633094</v>
+        <v>1153.778159336058</v>
       </c>
       <c r="C8" t="n">
-        <v>1000.467576692682</v>
+        <v>784.8156423956468</v>
       </c>
       <c r="D8" t="n">
-        <v>1000.467576692682</v>
+        <v>784.8156423956468</v>
       </c>
       <c r="E8" t="n">
-        <v>1000.467576692682</v>
+        <v>399.0273897974026</v>
       </c>
       <c r="F8" t="n">
-        <v>589.4816719030746</v>
+        <v>392.0818890481991</v>
       </c>
       <c r="G8" t="n">
-        <v>172.393890139502</v>
+        <v>379.0345113250306</v>
       </c>
       <c r="H8" t="n">
         <v>172.393890139502</v>
@@ -4810,19 +4810,19 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L8" t="n">
-        <v>784.1365874146478</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M8" t="n">
-        <v>1314.858658882597</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N8" t="n">
-        <v>1942.166326942443</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O8" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4834,22 +4834,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2519.635023934107</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U8" t="n">
-        <v>2519.635023934107</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V8" t="n">
-        <v>2519.635023934107</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="W8" t="n">
-        <v>2519.635023934107</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="X8" t="n">
-        <v>2146.169265673027</v>
+        <v>1930.517331375992</v>
       </c>
       <c r="Y8" t="n">
-        <v>1756.029933697215</v>
+        <v>1540.37799940018</v>
       </c>
     </row>
     <row r="9">
@@ -4892,7 +4892,7 @@
         <v>1005.150115568437</v>
       </c>
       <c r="M9" t="n">
-        <v>1232.27200203395</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N9" t="n">
         <v>1430.928743686615</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>393.436995403827</v>
+        <v>360.7773869882271</v>
       </c>
       <c r="C10" t="n">
-        <v>393.436995403827</v>
+        <v>191.8412040603202</v>
       </c>
       <c r="D10" t="n">
-        <v>393.436995403827</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E10" t="n">
-        <v>393.436995403827</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F10" t="n">
-        <v>393.436995403827</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G10" t="n">
-        <v>224.8301503992104</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H10" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I10" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
         <v>52.70091953961285</v>
@@ -4986,28 +4986,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R10" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S10" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T10" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U10" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V10" t="n">
-        <v>667.4731515124735</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W10" t="n">
-        <v>667.4731515124735</v>
+        <v>763.218430961997</v>
       </c>
       <c r="X10" t="n">
-        <v>614.2295745473571</v>
+        <v>763.218430961997</v>
       </c>
       <c r="Y10" t="n">
-        <v>393.436995403827</v>
+        <v>542.4258518184669</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362678</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E13" t="n">
         <v>484.8112968429803</v>
@@ -5196,16 +5196,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5497,67 +5497,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3122.226968733741</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>2953.290785805834</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>2803.174146393499</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>2803.174146393499</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>2656.284198895588</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>2489.088099610468</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>2347.376268452666</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>4623.787448650996</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>4404.185983673938</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>4115.110757018136</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>3860.426268812249</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>3571.009098775288</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>3343.019547877271</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>3122.226968733741</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5746,10 +5746,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111716</v>
@@ -5776,16 +5776,16 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5889,25 +5889,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>251.5626541092265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>746.8882603249853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2341.482060890433</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2052.406834234631</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,49 +6214,49 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>747.3737171343197</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>449.3439841395908</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>302.4540366416804</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>135.2579373565604</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6545,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703114</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>695.5020655703114</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>695.5020655703114</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6730,10 +6730,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6779,28 +6779,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3260.450525729773</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C34" t="n">
-        <v>3091.514342801866</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D34" t="n">
-        <v>2941.397703389531</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E34" t="n">
-        <v>2793.484609807138</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309227</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024107</v>
+        <v>255.5942300127263</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866305</v>
+        <v>113.8823988549244</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.37685307644</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>4288.37685307644</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>4033.692364870553</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3890.881120601561</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3662.891569703543</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y34" t="n">
-        <v>3442.098990560013</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7016,28 +7016,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7074,19 +7074,19 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,13 +7162,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192616</v>
@@ -7183,40 +7183,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>984.5467179762953</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>815.6105350483884</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>665.4938956360527</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>517.5808020536596</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7362,22 +7362,22 @@
         <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806535</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>1166.195182806535</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7393,7 +7393,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7408,7 +7408,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7596,13 +7596,13 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>2264.108249235165</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
         <v>2018.514925172274</v>
@@ -7636,37 +7636,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852256</v>
@@ -7681,16 +7681,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3342.53722908186</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153953</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741617</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159224</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661314</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>3677.571434467153</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>3677.571434467153</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>3524.185693912099</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>416.009188706528</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7993,7 +7993,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>379.1481554188186</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.328121188872814</v>
+        <v>7.328121188872984</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>322.9859123161128</v>
+        <v>322.985912316115</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8218,10 +8218,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>67.08071667170742</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8230,7 +8230,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>354.365095955167</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>184.4078422411148</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>458.0981188384286</v>
+        <v>294.725630339302</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8458,22 +8458,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M8" t="n">
-        <v>347.4976349924661</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263505</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>48.10560617263525</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>-1.773338340300088e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>-2.230370853753821e-13</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>39.70888054695399</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>67.52345255978867</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405072</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>71.67319509806804</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>62.35543909864917</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>112.9792378643585</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>99.26785128072125</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>2.005313310877</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>61.40075786968251</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>145.1398665102883</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.63391537253398</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>31.71340154579316</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25836,16 +25836,16 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V43" t="n">
-        <v>9.000252501565654</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>12.04875628922451</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>66.73277020259147</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>819513.4726755633</v>
+        <v>819513.4726755634</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>752710.0443633791</v>
+        <v>752710.044363379</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>752710.044363379</v>
+        <v>752710.0443633789</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>752710.0443633791</v>
+        <v>752710.0443633789</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>752710.0443633791</v>
+        <v>752710.0443633789</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>752710.0443633789</v>
+        <v>752710.0443633791</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>752710.044363379</v>
+        <v>752710.0443633789</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>752710.044363379</v>
+        <v>752710.0443633791</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>752710.044363379</v>
+        <v>752710.0443633789</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380331</v>
+        <v>677359.460138033</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.460138034</v>
       </c>
       <c r="E2" t="n">
         <v>665895.9447442547</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="I2" t="n">
         <v>665895.9447442552</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>665895.9447442555</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.944744255</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442553</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442552</v>
       </c>
       <c r="P2" t="n">
         <v>665895.944744255</v>
@@ -26365,25 +26365,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918876</v>
+        <v>787455.5478918869</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.2470084999</v>
+        <v>4906.247008500592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765844</v>
+        <v>775688.3472765845</v>
       </c>
       <c r="F3" t="n">
-        <v>4.239286404338694e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>128077.5968157137</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909052</v>
+        <v>190891.9800909054</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26426,40 +26426,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707412</v>
+        <v>6897.424496707319</v>
       </c>
       <c r="F4" t="n">
         <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
         <v>6897.424496707361</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707331</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707255</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707331</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707304</v>
       </c>
       <c r="M4" t="n">
         <v>6897.424496707361</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707312</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86500.62127051735</v>
+        <v>86500.62127051734</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-387488.689115277</v>
+        <v>-387488.6891152766</v>
       </c>
       <c r="C6" t="n">
-        <v>395943.3228704396</v>
+        <v>395943.3228704386</v>
       </c>
       <c r="D6" t="n">
-        <v>400849.5698789394</v>
+        <v>400849.5698789395</v>
       </c>
       <c r="E6" t="n">
-        <v>-217812.3568529442</v>
+        <v>-218159.7361073011</v>
       </c>
       <c r="F6" t="n">
-        <v>557875.9904236402</v>
+        <v>557528.6111692836</v>
       </c>
       <c r="G6" t="n">
-        <v>557875.9904236405</v>
+        <v>557528.6111692834</v>
       </c>
       <c r="H6" t="n">
-        <v>557875.9904236405</v>
+        <v>557528.6111692837</v>
       </c>
       <c r="I6" t="n">
-        <v>557875.9904236405</v>
+        <v>557528.6111692839</v>
       </c>
       <c r="J6" t="n">
-        <v>385514.99802336</v>
+        <v>385167.6187690033</v>
       </c>
       <c r="K6" t="n">
-        <v>557875.9904236406</v>
+        <v>557528.6111692839</v>
       </c>
       <c r="L6" t="n">
-        <v>557875.9904236405</v>
+        <v>557528.6111692837</v>
       </c>
       <c r="M6" t="n">
-        <v>429798.3936079271</v>
+        <v>429451.0143535698</v>
       </c>
       <c r="N6" t="n">
-        <v>557875.9904236404</v>
+        <v>557528.6111692837</v>
       </c>
       <c r="O6" t="n">
-        <v>557875.9904236407</v>
+        <v>557528.6111692836</v>
       </c>
       <c r="P6" t="n">
-        <v>557875.9904236405</v>
+        <v>557528.6111692837</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.227633599709595e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225499</v>
+        <v>588.0881844225491</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26801,19 +26801,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.227633599709595e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-8.227633599709595e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225499</v>
+        <v>588.0881844225491</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915515121</v>
+        <v>5.38791591551588</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036085</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544873</v>
+        <v>513.9467938544875</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.227633599709595e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>67.40001943484197</v>
       </c>
       <c r="E2" t="n">
-        <v>82.96127018370396</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.504804251687744</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.504804251687517</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>69.83676589640241</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.740858277092428</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.5587419097207</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775195</v>
+        <v>18.38275699775205</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444894001</v>
+        <v>129.6100444894002</v>
       </c>
       <c r="S4" t="n">
         <v>205.5352037822505</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>290.552020634151</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>394.2756136415344</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27794,10 +27794,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>247.3373313870284</v>
+        <v>49.75159364735455</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27861,16 +27861,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>110.4666691015423</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>98.3950195988961</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>10.86659134271207</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28070,13 +28070,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>172.9985141935719</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.227633599709595e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>8.227633599709595e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>8.227633599709595e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8.227633599709595e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>8.227633599709595e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8.227633599709595e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>8.227633599709595e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.227633599709595e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.227633599709595e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8.227633599709595e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>8.227633599709595e-14</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>8.227633599709595e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8.227633599709595e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.227633599709595e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.776735307729581e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-8.988773068867788e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -30765,7 +30765,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-7.092996046912547e-13</v>
       </c>
     </row>
     <row r="45">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718792</v>
+        <v>2.364173605718789</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956758</v>
+        <v>24.21209293956755</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447382</v>
+        <v>91.14480293447369</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683755</v>
+        <v>200.6562795683752</v>
       </c>
       <c r="K2" t="n">
-        <v>300.731748298452</v>
+        <v>300.7317482984516</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844686</v>
+        <v>373.0843262844681</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451701</v>
+        <v>415.1281986451696</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024187</v>
+        <v>421.8454069024181</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105524</v>
+        <v>398.3366556105519</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193697</v>
+        <v>339.9711197193693</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645654</v>
+        <v>255.304152464565</v>
       </c>
       <c r="R2" t="n">
-        <v>148.5085202602332</v>
+        <v>148.508520260233</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031703</v>
+        <v>53.87360604031695</v>
       </c>
       <c r="T2" t="n">
-        <v>10.34916995903402</v>
+        <v>10.349169959034</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575033</v>
+        <v>0.1891338884575031</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682466</v>
+        <v>1.264944396682464</v>
       </c>
       <c r="H3" t="n">
-        <v>12.2166998311175</v>
+        <v>12.21669983111749</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770771</v>
+        <v>43.55181365770765</v>
       </c>
       <c r="J3" t="n">
-        <v>119.5095054777939</v>
+        <v>119.5095054777937</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555191</v>
+        <v>204.2607800555188</v>
       </c>
       <c r="L3" t="n">
-        <v>274.6538261305504</v>
+        <v>274.65382613055</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102897</v>
+        <v>320.5080605102892</v>
       </c>
       <c r="N3" t="n">
-        <v>328.990955170498</v>
+        <v>328.9909551704976</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808497</v>
+        <v>300.9624503808493</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489527</v>
+        <v>241.5488997489523</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361688</v>
+        <v>161.4690426361686</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910963</v>
+        <v>78.53751262910951</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820281</v>
+        <v>23.49578736820277</v>
       </c>
       <c r="T3" t="n">
-        <v>5.09861359890871</v>
+        <v>5.098613598908702</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753069</v>
+        <v>0.08322002609753057</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942303</v>
+        <v>1.060486889942302</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577937</v>
+        <v>9.428692530577925</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753763</v>
+        <v>31.89173301753759</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892082</v>
+        <v>74.97642311892072</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314785</v>
+        <v>123.2092950314783</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646948</v>
+        <v>157.6654781646946</v>
       </c>
       <c r="M4" t="n">
-        <v>166.2361403934103</v>
+        <v>166.23614039341</v>
       </c>
       <c r="N4" t="n">
-        <v>162.2834165308982</v>
+        <v>162.283416530898</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983903</v>
+        <v>149.8950014983901</v>
       </c>
       <c r="P4" t="n">
-        <v>128.2610689435672</v>
+        <v>128.261068943567</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780504</v>
+        <v>88.80131584780491</v>
       </c>
       <c r="R4" t="n">
-        <v>47.68334688776936</v>
+        <v>47.6833468877693</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472177</v>
+        <v>18.48139425472174</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026203</v>
+        <v>4.531171257026196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139842</v>
+        <v>0.05784473945139833</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717718</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>230.1272937575231</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,16 +32338,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32551,10 +32551,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>279.0775374915851</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>146.0225991093084</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33274,7 +33274,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33499,16 +33499,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>324.5433647340731</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
@@ -33520,10 +33520,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33736,10 +33736,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>279.0775374915851</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33970,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34207,7 +34207,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>379.4203056753698</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34444,7 +34444,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,25 +34453,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>242.2322097768135</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.61037504168922</v>
+        <v>19.61037504168894</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347148</v>
+        <v>80.64189725347109</v>
       </c>
       <c r="L2" t="n">
-        <v>554.9791258649318</v>
+        <v>553.3271000210088</v>
       </c>
       <c r="M2" t="n">
-        <v>634.2954989107299</v>
+        <v>634.2954989107293</v>
       </c>
       <c r="N2" t="n">
-        <v>629.779267717812</v>
+        <v>629.7792677178113</v>
       </c>
       <c r="O2" t="n">
-        <v>547.3865996076844</v>
+        <v>549.0386254516105</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239641002</v>
+        <v>108.7381239640997</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.99846259011588</v>
+        <v>32.99846259011554</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>330.8845780937387</v>
+        <v>330.8845780937384</v>
       </c>
       <c r="L3" t="n">
-        <v>506.9397916541354</v>
+        <v>506.939791654135</v>
       </c>
       <c r="M3" t="n">
-        <v>644.0790903382713</v>
+        <v>644.0790903382708</v>
       </c>
       <c r="N3" t="n">
-        <v>197.6492430871647</v>
+        <v>197.6492430871643</v>
       </c>
       <c r="O3" t="n">
-        <v>481.352118252518</v>
+        <v>481.3521182525199</v>
       </c>
       <c r="P3" t="n">
-        <v>426.0372609745596</v>
+        <v>426.0372609745592</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.48726855014732</v>
+        <v>21.48726855014709</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055956</v>
+        <v>100.9398032055954</v>
       </c>
       <c r="L4" t="n">
-        <v>185.2555034250109</v>
+        <v>185.2555034250107</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552509</v>
+        <v>205.8200173552506</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101268</v>
+        <v>206.4155889101266</v>
       </c>
       <c r="O4" t="n">
-        <v>174.48012941243</v>
+        <v>174.4801294124298</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084607</v>
+        <v>125.5396282084605</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596110658</v>
+        <v>2.63927259611053</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,10 +34938,10 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>207.8167326729733</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
@@ -34950,7 +34950,7 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>526.2530003157322</v>
       </c>
       <c r="P5" t="n">
         <v>111.8528537874005</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>365.7182830033419</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>658.7614942451606</v>
+        <v>495.389005746034</v>
       </c>
       <c r="O6" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M8" t="n">
-        <v>536.0829004726759</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35260,10 +35260,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348621</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N12" t="n">
-        <v>191.3582339884385</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>98.78558167418976</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>136.4812930471406</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K23" t="n">
         <v>479.4543240367771</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>8.181160134949373</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
         <v>479.4543240367771</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36922,7 +36922,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>182.4093308120547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>136.4812930471406</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,22 +37867,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>237.2862717533515</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>103.6778299969394</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2854110.740621209</v>
+        <v>2855871.270923994</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10956994.25395846</v>
+        <v>10956994.25395845</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283201</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>287.283022185841</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9385639094162</v>
+        <v>12.93856390941626</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359322</v>
+        <v>119.331086635932</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.360597680916698</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>155.1464635459284</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7466796050973</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.156519019379</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>146.517826796073</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370742</v>
+        <v>45.84481919370734</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353362</v>
+        <v>20.11551727184605</v>
       </c>
       <c r="S3" t="n">
-        <v>146.6825794839475</v>
+        <v>148.187383735635</v>
       </c>
       <c r="T3" t="n">
         <v>195.0661150959129</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>162.189634191424</v>
+        <v>166.9304924685165</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7984799768616</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>26.68847580824329</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>29.86659043669658</v>
       </c>
       <c r="G5" t="n">
-        <v>18.64129030440236</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>202.3860496764734</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>35.46527312190288</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>204.5742149736733</v>
+        <v>61.44251898056588</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701358</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174159</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182169</v>
       </c>
       <c r="E13" t="n">
-        <v>78.9105100867805</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>72.60410776434291</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189185</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417107</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>104.8913819999787</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060239</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695354</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>41.02686156550261</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>117.4665281367377</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892427991</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701331</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892427993</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>19.865078448883</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576128</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>152.0741154159369</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187834</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346609</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>128.525145103608</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560547</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T45" t="n">
         <v>188.3046392154443</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>155.1980648094033</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>118.2774686880287</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1677.306059484222</v>
+        <v>1710.309000096191</v>
       </c>
       <c r="C2" t="n">
-        <v>1677.306059484222</v>
+        <v>1341.346483155779</v>
       </c>
       <c r="D2" t="n">
-        <v>1387.121188589433</v>
+        <v>983.0807845490285</v>
       </c>
       <c r="E2" t="n">
-        <v>1001.332935991189</v>
+        <v>597.2925319507843</v>
       </c>
       <c r="F2" t="n">
-        <v>590.3470312015811</v>
+        <v>186.3066271611768</v>
       </c>
       <c r="G2" t="n">
-        <v>173.2373706870192</v>
+        <v>173.237370687019</v>
       </c>
       <c r="H2" t="n">
-        <v>173.2373706870192</v>
+        <v>173.237370687019</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>72.1151908308849</v>
+        <v>72.1151908308853</v>
       </c>
       <c r="K2" t="n">
-        <v>151.9506691118213</v>
+        <v>151.9506691118222</v>
       </c>
       <c r="L2" t="n">
-        <v>699.74449813262</v>
+        <v>701.3800037181049</v>
       </c>
       <c r="M2" t="n">
-        <v>1327.697042054242</v>
+        <v>1329.332547639728</v>
       </c>
       <c r="N2" t="n">
-        <v>1951.178517094875</v>
+        <v>1952.814022680362</v>
       </c>
       <c r="O2" t="n">
-        <v>2494.72675629197</v>
+        <v>2494.726756291968</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.377499016428</v>
+        <v>2602.377499016427</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2633.671635888807</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S2" t="n">
-        <v>2476.958036347466</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T2" t="n">
-        <v>2262.062400382721</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U2" t="n">
-        <v>2008.368946827792</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V2" t="n">
-        <v>1677.306059484222</v>
+        <v>2487.048172136124</v>
       </c>
       <c r="W2" t="n">
-        <v>1677.306059484222</v>
+        <v>2487.048172136124</v>
       </c>
       <c r="X2" t="n">
-        <v>1677.306059484222</v>
+        <v>2487.048172136124</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.306059484222</v>
+        <v>2096.908840160313</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.6504081935058</v>
+        <v>966.6504081935055</v>
       </c>
       <c r="C3" t="n">
-        <v>792.1973789123788</v>
+        <v>792.1973789123786</v>
       </c>
       <c r="D3" t="n">
-        <v>643.2629692511275</v>
+        <v>643.2629692511273</v>
       </c>
       <c r="E3" t="n">
-        <v>484.025514245672</v>
+        <v>484.0255142456718</v>
       </c>
       <c r="F3" t="n">
-        <v>337.4909562725569</v>
+        <v>337.4909562725568</v>
       </c>
       <c r="G3" t="n">
-        <v>200.037852467983</v>
+        <v>200.0378524679829</v>
       </c>
       <c r="H3" t="n">
-        <v>99.0088177150749</v>
+        <v>99.00881771507481</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
@@ -4412,28 +4412,28 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>380.2766518524139</v>
+        <v>118.4560672099615</v>
       </c>
       <c r="L3" t="n">
-        <v>882.1470455900076</v>
+        <v>620.3264609475556</v>
       </c>
       <c r="M3" t="n">
-        <v>1519.785345024896</v>
+        <v>1257.964760382444</v>
       </c>
       <c r="N3" t="n">
-        <v>1715.458095681189</v>
+        <v>1910.138639685153</v>
       </c>
       <c r="O3" t="n">
-        <v>2191.996692751183</v>
+        <v>2456.844879646157</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.773581115997</v>
+        <v>2613.773581115996</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
-        <v>2613.207268371013</v>
+        <v>2614.727272665647</v>
       </c>
       <c r="S3" t="n">
         <v>2465.043046670055</v>
@@ -4442,7 +4442,7 @@
         <v>2268.006566775194</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.867009144005</v>
+        <v>2039.867009144004</v>
       </c>
       <c r="V3" t="n">
         <v>1804.714900912262</v>
@@ -4451,7 +4451,7 @@
         <v>1550.47754418406</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.626043978528</v>
+        <v>1342.626043978527</v>
       </c>
       <c r="Y3" t="n">
         <v>1134.865745213574</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>815.7904123234498</v>
+        <v>835.1734420192665</v>
       </c>
       <c r="C4" t="n">
-        <v>815.7904123234498</v>
+        <v>666.2372590913596</v>
       </c>
       <c r="D4" t="n">
-        <v>665.673772911114</v>
+        <v>516.1206196790239</v>
       </c>
       <c r="E4" t="n">
-        <v>517.7606793287209</v>
+        <v>368.2075260966308</v>
       </c>
       <c r="F4" t="n">
-        <v>370.8707318308105</v>
+        <v>221.3175785987204</v>
       </c>
       <c r="G4" t="n">
-        <v>207.0428185061398</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H4" t="n">
         <v>52.70091953961285</v>
@@ -4491,49 +4491,49 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>152.6313247131523</v>
+        <v>152.6313247131526</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039129</v>
+        <v>336.0342731039135</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856111</v>
+        <v>539.796090285612</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066363</v>
+        <v>744.1475233066376</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249418</v>
+        <v>916.8828514249434</v>
       </c>
       <c r="P4" t="n">
-        <v>1041.167083351318</v>
+        <v>1041.16708335132</v>
       </c>
       <c r="Q4" t="n">
-        <v>1043.779963221467</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="R4" t="n">
-        <v>1043.779963221467</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="S4" t="n">
-        <v>1043.779963221467</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="T4" t="n">
-        <v>1043.779963221467</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="U4" t="n">
-        <v>1043.779963221467</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="V4" t="n">
-        <v>1043.779963221467</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="W4" t="n">
-        <v>1043.779963221467</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="X4" t="n">
-        <v>815.7904123234498</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="Y4" t="n">
-        <v>815.7904123234498</v>
+        <v>1016.821906849506</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1715.225849240579</v>
+        <v>1328.626009176457</v>
       </c>
       <c r="C5" t="n">
-        <v>1346.263332300167</v>
+        <v>959.6634922360456</v>
       </c>
       <c r="D5" t="n">
-        <v>987.9976336934169</v>
+        <v>601.3977936292952</v>
       </c>
       <c r="E5" t="n">
-        <v>602.2093810951726</v>
+        <v>215.6095410310509</v>
       </c>
       <c r="F5" t="n">
-        <v>191.223476305565</v>
+        <v>185.4412678626705</v>
       </c>
       <c r="G5" t="n">
         <v>172.393890139502</v>
@@ -4567,25 +4567,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K5" t="n">
-        <v>156.4983241075885</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L5" t="n">
-        <v>709.3115823537878</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M5" t="n">
-        <v>1341.029393337099</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N5" t="n">
-        <v>1968.337061396946</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O5" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P5" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.5567829601589</v>
+        <v>835.1636279647756</v>
       </c>
       <c r="C7" t="n">
-        <v>497.620600032252</v>
+        <v>666.2274450368687</v>
       </c>
       <c r="D7" t="n">
-        <v>347.5039606199163</v>
+        <v>516.110805624533</v>
       </c>
       <c r="E7" t="n">
-        <v>199.5908670375232</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="F7" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G7" t="n">
         <v>52.70091953961285</v>
@@ -4761,16 +4761,16 @@
         <v>1052.635600998958</v>
       </c>
       <c r="V7" t="n">
-        <v>848.2052477903986</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W7" t="n">
-        <v>848.2052477903986</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="X7" t="n">
-        <v>848.2052477903986</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="Y7" t="n">
-        <v>848.2052477903986</v>
+        <v>1016.812092795015</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1153.778159336058</v>
+        <v>1328.626009176457</v>
       </c>
       <c r="C8" t="n">
-        <v>784.8156423956468</v>
+        <v>1328.626009176457</v>
       </c>
       <c r="D8" t="n">
-        <v>784.8156423956468</v>
+        <v>1328.626009176457</v>
       </c>
       <c r="E8" t="n">
-        <v>399.0273897974026</v>
+        <v>942.837756578213</v>
       </c>
       <c r="F8" t="n">
-        <v>392.0818890481991</v>
+        <v>531.8518517886055</v>
       </c>
       <c r="G8" t="n">
-        <v>379.0345113250306</v>
+        <v>114.7640700250329</v>
       </c>
       <c r="H8" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
@@ -4831,25 +4831,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V8" t="n">
-        <v>2303.983089637072</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W8" t="n">
-        <v>2303.983089637072</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="X8" t="n">
-        <v>1930.517331375992</v>
+        <v>2105.365181216391</v>
       </c>
       <c r="Y8" t="n">
-        <v>1540.37799940018</v>
+        <v>1715.225849240579</v>
       </c>
     </row>
     <row r="9">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>1016.580456911445</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892232</v>
+        <v>847.6442739835377</v>
       </c>
       <c r="D13" t="n">
-        <v>564.5188827892232</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1975.033022579364</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1720.348534373477</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1647.011051783232</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1419.021500885214</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>1198.228921741684</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273915</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876702</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597633</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>261.8464821474275</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>113.9333885650344</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>983.34034846144</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179099</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5606,10 +5606,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,40 +5740,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5782,10 +5782,10 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5828,19 +5828,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
         <v>2001.151557821488</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192585</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6065,19 +6065,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803935</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516138</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N24" t="n">
         <v>2001.151557821488</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>407.9027098310023</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6220,37 +6220,37 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192581</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852251</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273893</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803935</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516138</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622266</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343197</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2570777219839</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>449.3439841395908</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>302.4540366416804</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>135.2579373565604</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934014</v>
+        <v>1398.968683817744</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>1398.968683817744</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892466</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192581</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111744</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075833</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273893</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803935</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516138</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793923</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270425</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R31" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S31" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T31" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168596</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.83315239859</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492574</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.25260147478</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="33">
@@ -6764,31 +6764,31 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527389</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803934</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516138</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793923</v>
       </c>
       <c r="N33" t="n">
         <v>2001.151557821488</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>741.843151638089</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C34" t="n">
-        <v>572.9069687101821</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D34" t="n">
-        <v>422.7903292978464</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>422.7903292978464</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>422.7903292978464</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>255.5942300127263</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="H34" t="n">
-        <v>113.8823988549244</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="35">
@@ -6928,43 +6928,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.83315239859</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492574</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7004,31 +7004,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527389</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803934</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516138</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793923</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>800.6374272687974</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797686</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910803</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570811</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279796</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853354</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580253</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832656</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.06254548756</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2043.452327895704</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1754.377101239902</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1499.692613034015</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1210.275442997055</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>982.2858920990371</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>982.2858920990371</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406465</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168579</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192579</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852251</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273892</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803934</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516138</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793923</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7326,46 +7326,46 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>2157.887856924457</v>
       </c>
       <c r="V40" t="n">
         <v>2018.514925172274</v>
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192585</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852251</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803935</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516138</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793923</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>762.5477693179067</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>762.5477693179067</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>762.5477693179067</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>614.6346757355136</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258104</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359454</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614369</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179067</v>
       </c>
     </row>
     <row r="44">
@@ -7636,43 +7636,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192585</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852251</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492579</v>
@@ -7681,16 +7681,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803935</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516138</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793923</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703114</v>
+        <v>988.1395539230153</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>819.2033709951085</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282754</v>
+        <v>669.0867315827727</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458823</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831763</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1907.987318831763</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1618.570148794802</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1390.580597896785</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1169.788018753255</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>416.009188706528</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7993,7 +7993,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>379.1481554188175</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.328121188872984</v>
+        <v>7.328121188872757</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>461.1122511579957</v>
       </c>
       <c r="O3" t="n">
-        <v>322.985912316115</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>50.93934753390246</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>354.365095955167</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.773338340300088e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>5.002220859751105e-12</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>2.444267011014745e-12</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-2.230370853753821e-13</v>
+        <v>3.296918293926865e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.506350599811412e-12</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-12</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>67.52345255978867</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>213.9188905722481</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.5054897610394</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>62.35543909864917</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>125.5054897610422</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>99.26785128072125</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>101.1181252153571</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194397</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.54986409393243</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>61.40075786968251</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>65.33133491135143</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -25605,10 +25605,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>114.1584408891671</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>16.89590291932328</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>12.04875628922451</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>28.15649395854042</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>819513.4726755634</v>
+        <v>819513.4726755633</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>752710.0443633789</v>
+        <v>752710.044363379</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>752710.0443633791</v>
+        <v>752710.0443633789</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>752710.044363379</v>
+        <v>752710.0443633789</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>752710.0443633789</v>
+        <v>752710.0443633788</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>752710.0443633791</v>
+        <v>752710.044363379</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>752710.0443633789</v>
+        <v>752710.044363379</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.460138033</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="D2" t="n">
         <v>677359.460138034</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="G2" t="n">
         <v>665895.9447442547</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="I2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.9447442543</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442553</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442555</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442553</v>
       </c>
       <c r="O2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442547</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918869</v>
+        <v>787455.5478918881</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.247008500592</v>
+        <v>4906.247008499599</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765845</v>
+        <v>775688.3472765854</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172360.9924002808</v>
+        <v>172360.9924002807</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157137</v>
+        <v>128077.596815714</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909054</v>
+        <v>190891.9800909052</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26426,40 +26426,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707256</v>
+      </c>
+      <c r="F4" t="n">
         <v>6897.424496707319</v>
       </c>
-      <c r="F4" t="n">
-        <v>6897.424496707361</v>
-      </c>
       <c r="G4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707321</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707348</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.424496707459</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670749</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.424496707518</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707304</v>
+        <v>6897.424496707442</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707464</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707536</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707445</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707312</v>
+        <v>6897.424496707488</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86500.62127051734</v>
+        <v>86500.62127051735</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26478,10 +26478,10 @@
         <v>86618.07783747558</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26499,10 +26499,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-387488.6891152766</v>
+        <v>-387488.6891152771</v>
       </c>
       <c r="C6" t="n">
-        <v>395943.3228704386</v>
+        <v>395943.3228704398</v>
       </c>
       <c r="D6" t="n">
         <v>400849.5698789395</v>
       </c>
       <c r="E6" t="n">
-        <v>-218159.7361073011</v>
+        <v>-217847.0947783806</v>
       </c>
       <c r="F6" t="n">
-        <v>557528.6111692836</v>
+        <v>557841.2524982051</v>
       </c>
       <c r="G6" t="n">
-        <v>557528.6111692834</v>
+        <v>557841.2524982055</v>
       </c>
       <c r="H6" t="n">
-        <v>557528.6111692837</v>
+        <v>557841.2524982048</v>
       </c>
       <c r="I6" t="n">
-        <v>557528.6111692839</v>
+        <v>557841.2524982053</v>
       </c>
       <c r="J6" t="n">
-        <v>385167.6187690033</v>
+        <v>385480.260097924</v>
       </c>
       <c r="K6" t="n">
-        <v>557528.6111692839</v>
+        <v>557841.2524982048</v>
       </c>
       <c r="L6" t="n">
-        <v>557528.6111692837</v>
+        <v>557841.2524982044</v>
       </c>
       <c r="M6" t="n">
-        <v>429451.0143535698</v>
+        <v>429763.6556824908</v>
       </c>
       <c r="N6" t="n">
-        <v>557528.6111692837</v>
+        <v>557841.2524982046</v>
       </c>
       <c r="O6" t="n">
-        <v>557528.6111692836</v>
+        <v>557841.2524982049</v>
       </c>
       <c r="P6" t="n">
-        <v>557528.6111692837</v>
+        <v>557841.2524982045</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225491</v>
+        <v>588.0881844225503</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26758,28 +26758,28 @@
         <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26819,19 +26819,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099647</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225491</v>
+        <v>588.0881844225503</v>
       </c>
       <c r="C3" t="n">
-        <v>5.38791591551588</v>
+        <v>5.387915915514791</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036094</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-4.576548403253876e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.9467938544886</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451602</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.9467938544886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>67.40001943484197</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>315.2627091761996</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.360597680916413</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>155.1464635459283</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7466796050973</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.156519019379</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>181.2344316740619</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.50480425168741</v>
       </c>
       <c r="S3" t="n">
-        <v>1.504804251687517</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.740858277092428</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7984799768616</v>
       </c>
       <c r="I4" t="n">
-        <v>123.5587419097207</v>
+        <v>123.5587419097206</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775205</v>
+        <v>18.38275699775191</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444894002</v>
+        <v>129.6100444894001</v>
       </c>
       <c r="S4" t="n">
         <v>205.5352037822505</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>191.8961775438515</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>377.0094553050149</v>
       </c>
       <c r="G5" t="n">
-        <v>394.2756136415344</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
@@ -27833,7 +27833,7 @@
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>49.75159364735455</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>183.1193802301919</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>110.4666691015423</v>
+        <v>253.5983650946497</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -27912,7 +27912,7 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28104,10 +28104,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-3.810553556597174e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28253,7 +28253,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-4.571293608196788e-12</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28341,10 +28341,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.810553556597174e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-3.810553556597174e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="18">
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.81768359636456e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29802,13 +29802,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-8.988773068867788e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.752719689095065e-12</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,13 +30036,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>3.296918293926865e-12</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30051,10 +30051,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30173,7 +30173,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-3.218525874054298e-12</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>3.240074875066057e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -30765,7 +30765,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>-7.092996046912547e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718789</v>
+        <v>2.364173605718793</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956755</v>
+        <v>24.2120929395676</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447369</v>
+        <v>91.14480293447387</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683752</v>
+        <v>200.6562795683756</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984516</v>
+        <v>300.7317482984522</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844681</v>
+        <v>373.0843262844688</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451696</v>
+        <v>415.1281986451704</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024181</v>
+        <v>421.8454069024189</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105519</v>
+        <v>398.3366556105527</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193693</v>
+        <v>339.9711197193699</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.304152464565</v>
+        <v>255.3041524645655</v>
       </c>
       <c r="R2" t="n">
-        <v>148.508520260233</v>
+        <v>148.5085202602333</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031695</v>
+        <v>53.87360604031706</v>
       </c>
       <c r="T2" t="n">
-        <v>10.349169959034</v>
+        <v>10.34916995903402</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575031</v>
+        <v>0.1891338884575034</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682464</v>
+        <v>1.264944396682467</v>
       </c>
       <c r="H3" t="n">
-        <v>12.21669983111749</v>
+        <v>12.21669983111751</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770765</v>
+        <v>43.55181365770774</v>
       </c>
       <c r="J3" t="n">
-        <v>119.5095054777937</v>
+        <v>119.5095054777939</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555188</v>
+        <v>204.2607800555192</v>
       </c>
       <c r="L3" t="n">
-        <v>274.65382613055</v>
+        <v>274.6538261305505</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102892</v>
+        <v>320.5080605102899</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704976</v>
+        <v>328.9909551704982</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808493</v>
+        <v>300.9624503808499</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489523</v>
+        <v>241.5488997489528</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361686</v>
+        <v>161.4690426361689</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910951</v>
+        <v>78.53751262910967</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820277</v>
+        <v>23.49578736820282</v>
       </c>
       <c r="T3" t="n">
-        <v>5.098613598908702</v>
+        <v>5.098613598908712</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753057</v>
+        <v>0.08322002609753074</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942302</v>
+        <v>1.060486889942304</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577925</v>
+        <v>9.428692530577942</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753759</v>
+        <v>31.89173301753765</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892072</v>
+        <v>74.97642311892086</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314783</v>
+        <v>123.2092950314785</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646946</v>
+        <v>157.6654781646949</v>
       </c>
       <c r="M4" t="n">
-        <v>166.23614039341</v>
+        <v>166.2361403934104</v>
       </c>
       <c r="N4" t="n">
-        <v>162.283416530898</v>
+        <v>162.2834165308983</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983901</v>
+        <v>149.8950014983904</v>
       </c>
       <c r="P4" t="n">
-        <v>128.261068943567</v>
+        <v>128.2610689435673</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780491</v>
+        <v>88.80131584780509</v>
       </c>
       <c r="R4" t="n">
-        <v>47.6833468877693</v>
+        <v>47.68334688776939</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472174</v>
+        <v>18.48139425472178</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026196</v>
+        <v>4.531171257026205</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139833</v>
+        <v>0.05784473945139845</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>338.1920576279222</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145758</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>444.227491598291</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.080820443724</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>444.227491598291</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.080820443724</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558032</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192575</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.080820443724</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K36" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558032</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558032</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558032</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558032</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.61037504168894</v>
+        <v>19.61037504168934</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347109</v>
+        <v>80.64189725347165</v>
       </c>
       <c r="L2" t="n">
-        <v>553.3271000210088</v>
+        <v>554.979125864932</v>
       </c>
       <c r="M2" t="n">
-        <v>634.2954989107293</v>
+        <v>634.2954989107301</v>
       </c>
       <c r="N2" t="n">
-        <v>629.7792677178113</v>
+        <v>629.7792677178122</v>
       </c>
       <c r="O2" t="n">
-        <v>549.0386254516105</v>
+        <v>547.3865996076835</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239640997</v>
+        <v>108.7381239641003</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.99846259011554</v>
+        <v>32.99846259011605</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>330.8845780937384</v>
+        <v>66.41934108116021</v>
       </c>
       <c r="L3" t="n">
-        <v>506.939791654135</v>
+        <v>506.9397916541355</v>
       </c>
       <c r="M3" t="n">
-        <v>644.0790903382708</v>
+        <v>644.0790903382715</v>
       </c>
       <c r="N3" t="n">
-        <v>197.6492430871643</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O3" t="n">
-        <v>481.3521182525199</v>
+        <v>552.228525213135</v>
       </c>
       <c r="P3" t="n">
-        <v>426.0372609745592</v>
+        <v>158.513839868525</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.48726855014709</v>
+        <v>21.48726855014741</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055954</v>
+        <v>100.9398032055957</v>
       </c>
       <c r="L4" t="n">
-        <v>185.2555034250107</v>
+        <v>185.255503425011</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552506</v>
+        <v>205.8200173552509</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101266</v>
+        <v>206.4155889101269</v>
       </c>
       <c r="O4" t="n">
-        <v>174.4801294124298</v>
+        <v>174.4801294124301</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084605</v>
+        <v>125.5396282084608</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.63927259611053</v>
+        <v>2.6392725961107</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
-        <v>526.2530003157322</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>196.0580237059039</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312425</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193561</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774858</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762726</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992795</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774858</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762726</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992795</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039645</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774858</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113588</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774858</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359242</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992795</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774858</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K36" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113588</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191258</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774858</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113588</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902445</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774858</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113588</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902445</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774858</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113588</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
